--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_126.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_126.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Knights Inn New Orleans Metairie</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Metairie</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>38</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4885</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70003</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70003</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_126.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_126.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,777 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r574068587-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40314</t>
+  </si>
+  <si>
+    <t>93079</t>
+  </si>
+  <si>
+    <t>574068587</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Great experience!!</t>
+  </si>
+  <si>
+    <t>Would highly recommend this hotel to others. The rooms were fairly up-to-date and very clean, the location was perfect, the staff was very friendly helpful and professional as well. I had left my brand new phone there and had already got almost 2 hours away before I realized it. When I got back to the hotel to retrieve it they had it labeled and wrapped up very professionally for me. I would highly recommend this hotel to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>knightsinn m, Guest Relations Manager at Knights Inn Metairie, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Would highly recommend this hotel to others. The rooms were fairly up-to-date and very clean, the location was perfect, the staff was very friendly helpful and professional as well. I had left my brand new phone there and had already got almost 2 hours away before I realized it. When I got back to the hotel to retrieve it they had it labeled and wrapped up very professionally for me. I would highly recommend this hotel to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r567985544-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>567985544</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Absolutely disgusting</t>
+  </si>
+  <si>
+    <t>This place is beyond bad.  Unsanitary and needs to be shut down by the health inspector.  It was in complete disrepair and was by far the worst hotel I've ever stayed at.  It felt like a death trap with how many things were properly covered such as the fan above the stove in the kitchen area having no safety cover.   Shower had no hot water. THIS PLACE IS DISGUSTING !</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r566125921-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>566125921</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean needs updating </t>
+  </si>
+  <si>
+    <t>Well this hotel isn't wonderful. But it is clean. It's four walls and a roof. It desperately needs updating but while I was there it appears they are working on that. It is run down but it is clean which is a plus in this area. There are other hotels in the area that are filthy so the bonus for this is that it is clean. It's cheap to stay in but it's safe and clean.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r502646610-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>502646610</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Do not waste your money here</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights, worst hotel I have ever stayed in. It was cheap $295 for the 5 nights. Room small, beds very uncomfortable, no tea or coffee facilities in the room, small fridge that wasn't working properly. Bathroom was ok except nowhere to put anything, leaky shower, was only given two towels for three people, even when we said 3 towels were needed. The pool was not available, it was empty. The place is noisy at night, no ironing facilities in room, the laundry room is dirty, looks like it is never cleaned, no ironing facilities there either. They couldn't seem to find my reservation from the start,   I booked a room with two queen beds got a room with two doubles. The room is old and dated with decor that is from the 70's. If we could have been refunded we would have stayed somewhere else after the very first night. Will not recommend to anyone to stay hereMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>angelinalafrance, Guest Relations Manager at Knights Inn Metairie, responded to this reviewResponded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights, worst hotel I have ever stayed in. It was cheap $295 for the 5 nights. Room small, beds very uncomfortable, no tea or coffee facilities in the room, small fridge that wasn't working properly. Bathroom was ok except nowhere to put anything, leaky shower, was only given two towels for three people, even when we said 3 towels were needed. The pool was not available, it was empty. The place is noisy at night, no ironing facilities in room, the laundry room is dirty, looks like it is never cleaned, no ironing facilities there either. They couldn't seem to find my reservation from the start,   I booked a room with two queen beds got a room with two doubles. The room is old and dated with decor that is from the 70's. If we could have been refunded we would have stayed somewhere else after the very first night. Will not recommend to anyone to stay hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r485156036-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>485156036</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>I'll Stay Again</t>
+  </si>
+  <si>
+    <t>I'm going to start this review off by saying I was looking for somewhere cheap to sleep before boarding a cruise in New Orleans. It was jazz fest and most hotels were crazy booked. After a 9 1/2 hour drive not including stops I was excited to pull into the hotel. I'm not going to lie the outside looks a bit shady. But we winded up having a room in the inside of the courtyard facing the pool. That pool felt so good after that long of a ride. I didn't interact with the staff all that much but when I did, I was pleased. It's no 5 star hotel by any means, But you get what you pay for. It was decently clean. The bathroom was a good size. The bed was comfy enough. Ill stay again before cruising out of New Orleans.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>angelinalafrance, Guest Relations Manager at Knights Inn Metairie, responded to this reviewResponded May 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2017</t>
+  </si>
+  <si>
+    <t>I'm going to start this review off by saying I was looking for somewhere cheap to sleep before boarding a cruise in New Orleans. It was jazz fest and most hotels were crazy booked. After a 9 1/2 hour drive not including stops I was excited to pull into the hotel. I'm not going to lie the outside looks a bit shady. But we winded up having a room in the inside of the courtyard facing the pool. That pool felt so good after that long of a ride. I didn't interact with the staff all that much but when I did, I was pleased. It's no 5 star hotel by any means, But you get what you pay for. It was decently clean. The bathroom was a good size. The bed was comfy enough. Ill stay again before cruising out of New Orleans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r473126817-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>473126817</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>bugs, dirty</t>
+  </si>
+  <si>
+    <t>Worst motel I ever stayed in. One side was against a trailer park the other a sonic burger joint.Noisy and super dated straight from the 80's and same furniture. I slept in my clothes. Family run and maintained. Even the cab driver who picked me up couldn't believe we stayed there.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Worst motel I ever stayed in. One side was against a trailer park the other a sonic burger joint.Noisy and super dated straight from the 80's and same furniture. I slept in my clothes. Family run and maintained. Even the cab driver who picked me up couldn't believe we stayed there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r472718073-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>472718073</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>over priced</t>
+  </si>
+  <si>
+    <t>I would not stay here again for what we paid ($73.94).  The hotel's building and grounds are "tired" and not well kept. There was mold in the shower and I could only get luke warm water for a shower.  It was so tepid I hopped in then right back out. Brrr. Towels were also 'tired' and thin.  The bedding had a chemical odor to it and the pillowcase was so rough and smelly I got up in the middle of the night and put my own T-shirt over the pillow so I could get some sleep. The breakfast room needs a face lift or at least a little TLC.  Coffee was available but no tea. Thankful we were only there one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>I would not stay here again for what we paid ($73.94).  The hotel's building and grounds are "tired" and not well kept. There was mold in the shower and I could only get luke warm water for a shower.  It was so tepid I hopped in then right back out. Brrr. Towels were also 'tired' and thin.  The bedding had a chemical odor to it and the pillowcase was so rough and smelly I got up in the middle of the night and put my own T-shirt over the pillow so I could get some sleep. The breakfast room needs a face lift or at least a little TLC.  Coffee was available but no tea. Thankful we were only there one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r462736028-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>462736028</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>fire victim</t>
+  </si>
+  <si>
+    <t>My house was destroyed by fire. My neighbors checked me into the Knight's Inn Metairie,la. Everything was nice. The front desk were sympathetic and checked me in right away.The housekeeping department is keeping my room very clean. I have been here since 1/28/17 paying weekly while I am waiting to find a place to live.The manager at the front desk in the morning Mr. PM is so kind and helpful too. The lady at the front desk Angelina is helping me to find a place to live and helping me with food. Over all this is a great place to stay, the rooms are great, the employees are wonderful and I felt safe and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>My house was destroyed by fire. My neighbors checked me into the Knight's Inn Metairie,la. Everything was nice. The front desk were sympathetic and checked me in right away.The housekeeping department is keeping my room very clean. I have been here since 1/28/17 paying weekly while I am waiting to find a place to live.The manager at the front desk in the morning Mr. PM is so kind and helpful too. The lady at the front desk Angelina is helping me to find a place to live and helping me with food. Over all this is a great place to stay, the rooms are great, the employees are wonderful and I felt safe and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r438047928-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>438047928</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Good budget motel</t>
+  </si>
+  <si>
+    <t>Friendly staff, a good sized room. Motel is clean and the room has a microwave and fridge and good sized TV.  Bed was very comfortable.The breakfast was ok, waffles and syrup, toast, cereal, pastries Coffee and juice.The pool looked nice and was clean. The wifi was really strong.Shops near bye.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r433975379-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>433975379</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Decent no complaints</t>
+  </si>
+  <si>
+    <t>My room 104 near pool was a little loud with the kids in the pool guys drinking at night outside made a little noise nothing too disturbing  room was clean clean towels nice bathroom look  newly remodeled clean carpets clean bedding nothing to complain about I saw no bugs front desk wasn't that friendly but friendly enough just wanted a room and a key and out the door I went would recommend for one night it is a little pricey 4 an older model Hotel would recommend if you looking for something for a night</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r428276296-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>428276296</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>WORSE HOTEL EVER!!!</t>
+  </si>
+  <si>
+    <t>First of all when checking in the register couldn't find our reservation when it had already been paid we had to wait for 1 hour before getting our room, the room had a strong odor when first opening the door the beds were made it had a flat TV screen the restroom was remodeled but it was dirty the toilet looked like it hadn't been clean. The worse part of this hotel is the staff I had to call the office at 2 in the morning because the neighbors wouldn't keep it down and we could hear everything exaggerated noises that wouldn't let me sleep the walls are really thin so you could imagine so the only thing the office told me was to call the police because they couldn't do anything... for parents who are thinking about bringing there children here I suggest this is not the hotel for you guys.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>angelinalafrance, Guest Relations Manager at Knights Inn Metairie, responded to this reviewResponded July 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2017</t>
+  </si>
+  <si>
+    <t>First of all when checking in the register couldn't find our reservation when it had already been paid we had to wait for 1 hour before getting our room, the room had a strong odor when first opening the door the beds were made it had a flat TV screen the restroom was remodeled but it was dirty the toilet looked like it hadn't been clean. The worse part of this hotel is the staff I had to call the office at 2 in the morning because the neighbors wouldn't keep it down and we could hear everything exaggerated noises that wouldn't let me sleep the walls are really thin so you could imagine so the only thing the office told me was to call the police because they couldn't do anything... for parents who are thinking about bringing there children here I suggest this is not the hotel for you guys.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r399344104-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>399344104</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Clean!</t>
+  </si>
+  <si>
+    <t>Friendly staff, easy access to public bus stop, quiet, clean, nice pool. We are a family of two adults and four children. The children are 16,16 13 and 12. It was about a 20 minute ride to downtown area attractions. The bus system was easy to use and it was only two dollars per person</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r398230488-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>398230488</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Things that go bump....</t>
+  </si>
+  <si>
+    <t>I stayed here with a friend who was working in this area. Not a bad place, but the walls are paper thin and we could hear our neighbors....well you know....Made it hard to fall asleep, stay asleep, or watch TV. The area was a bit rough, but our cars were not broken into, so that's a plus.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r347385299-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>347385299</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t>You will not have a Good Night at this Knights Inn</t>
+  </si>
+  <si>
+    <t>I wouldn't recommend staying here for any longer than a few hrs or a day. I stay at this location when I'm on my way to the airport. The Hotel should be a Motel, its in poor shape, I didn't feel safe here. Hotel is across from a Trailer park. you have no view of anything. The Breakfast they offer is not what has been advertised. Nothing hot at all only a malfunctioning waffle maker and about of cold cereals. Beds are hard, bathrooms looks so outdated I thought I was in the twilight zone. All and all not a great place.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r340808243-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>340808243</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>It was ok</t>
+  </si>
+  <si>
+    <t>Ok for the price but pretty dirty and the room was almost wet from the humidity so it kinda made us feel sticky and the staff wasn't very nice and the breakfast they offered was coffee and snack cakes . All in all it was what it was and nothing special.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r331957452-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>331957452</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>A Decent Nights Stay</t>
+  </si>
+  <si>
+    <t>We stayed in this location for three days. The Bed was Awesomely comfortable with adequate heating and cooling unit, the bathrooms were exceptionally clean, all the electrical outlets worked, it had a flat screen tv, however, the carpet was NOT very nice.  It was sticky and dirty, and needs to be replaced.  We stayed in room 105.  The Staff was nice and accomodating, but even though we had a "do not disturb" sign on the door, they came and knocked twice for housekeeping our room and we had to ask them nicely to please see the sign on our door.  Other than that, we slept well and the place was very quiet.  The outside of the building needs a LOT of renovation as does the parking lot.  Outside the front lobby, it smelled like a urinal.  Not something one wants to smell early in the morning when checking out. No security on premises and there are areas of the parking lots that have no street lighting.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>We stayed in this location for three days. The Bed was Awesomely comfortable with adequate heating and cooling unit, the bathrooms were exceptionally clean, all the electrical outlets worked, it had a flat screen tv, however, the carpet was NOT very nice.  It was sticky and dirty, and needs to be replaced.  We stayed in room 105.  The Staff was nice and accomodating, but even though we had a "do not disturb" sign on the door, they came and knocked twice for housekeeping our room and we had to ask them nicely to please see the sign on our door.  Other than that, we slept well and the place was very quiet.  The outside of the building needs a LOT of renovation as does the parking lot.  Outside the front lobby, it smelled like a urinal.  Not something one wants to smell early in the morning when checking out. No security on premises and there are areas of the parking lots that have no street lighting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r307913864-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>307913864</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the WORST hotel and the WORST staff. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff here is horrible and the manager sucks!! The hotel was dirty and the bathrooms were disgusting and had no soap, the manager was extremely rude and inconsiderate and I will make sure none of my friends or family goes here, they are mean. </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r293654740-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>293654740</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good for the money! </t>
+  </si>
+  <si>
+    <t>Air Conditioning  was cold,  and the pool was nice. Located across the street from the New Orleans Saints training facility, but next door to trailer park. It's about 15 minutes away from the French Quarters.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r270310550-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>270310550</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>Spend a few extra dollars to avoid this hotel</t>
+  </si>
+  <si>
+    <t>Carpets not vacuumed, tile floor sticky (not cleaned), extreme frost build-up in freezer, shower temperature fluctuates hot to cold, internet worthless.  Also, housekeeping will knock on your door despite DO NOT DISTURB sign.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r266710344-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>266710344</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Okay, not a five-star property</t>
+  </si>
+  <si>
+    <t>A quick read of the reviews on this property might cause a traveler to stay elsewhere,  Okay, it's not a five-star hotel, but it is also not a $200-300 per night room in the French Quarter either.  I stayed in this property for four nights because I decided rooms in the French Quarter were too rich for my blood.  While the building is indeed a bit old, the room was clean, the location was quiet, and there was even a swimming pool (which I did not use, but I saw kids in it).  Also a small refrigerator and microwave in the room.  Ice machine down the hall. The New Orleans Saints training complex is across the street, so that was an interesting side note.  I would stay at this motel again, especially if price was a concern.  In the scheme of things it is probably a two-star plus motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>A quick read of the reviews on this property might cause a traveler to stay elsewhere,  Okay, it's not a five-star hotel, but it is also not a $200-300 per night room in the French Quarter either.  I stayed in this property for four nights because I decided rooms in the French Quarter were too rich for my blood.  While the building is indeed a bit old, the room was clean, the location was quiet, and there was even a swimming pool (which I did not use, but I saw kids in it).  Also a small refrigerator and microwave in the room.  Ice machine down the hall. The New Orleans Saints training complex is across the street, so that was an interesting side note.  I would stay at this motel again, especially if price was a concern.  In the scheme of things it is probably a two-star plus motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r263400455-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>263400455</t>
+  </si>
+  <si>
+    <t>04/03/2015</t>
+  </si>
+  <si>
+    <t>Stayed for the night</t>
+  </si>
+  <si>
+    <t>We got two rooms. First room was good for what we paid for. Area was not that great. Second room air conditioner didnt work so we moved and the next room the shower did not work. They had flys in the bathroom in that one room and you can hear the neighbors pretty well. Breakfast ran out of stuff but they quuckly refilled everything.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r260431015-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>260431015</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Not the best</t>
+  </si>
+  <si>
+    <t>I booked a room for 5 persons but had to pay $15 extra for a roll away bed as there was only 2 Queen size beds in the room....Breakfast and wifi were ok.Noise level was ok.The picture on the booking site does not match at all the hotel itself!Coakroach in the bathroom.... old hotel!</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r215461266-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>215461266</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>great location, great price</t>
+  </si>
+  <si>
+    <t>if you are just looking for a place to lay your head at night, this is it. Great location, great price. We stayed 3 nights and had no issues. Sure the towels weren't big and fluffy and the staff really glad you chose them, but on the other hand it was worth what you pay.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r205442793-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>205442793</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Not as bad as i expected</t>
+  </si>
+  <si>
+    <t>From outside looks a bit dilapidated.  Room has loud colors but fairly clean.  Large (1-2") bug was crawling across ceiling.  Breakfast was not very good--refrigerated donuts?  It is a modestly priced place close to the airport so if you are not fussy may be worth staying here.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r200863270-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>200863270</t>
+  </si>
+  <si>
+    <t>04/12/2014</t>
+  </si>
+  <si>
+    <t>Bi-Polar Shower</t>
+  </si>
+  <si>
+    <t>If your looking for a place to crash and get some sleep and don't mind the sound of planes then this is a good place to be.  The King room is nice, the bed is pretty comfortable. The refigerator was cold, but the freezer don't work, small coffee pot, iron, ironing board and hair dryer are cool.  The only true issue is the Bi Polar shower.....It seriously cannot decide whether it wants to be hot or cold.  Regardless of how you set the knobs....it changes to what it wants.  Both my Husband and I tried to take a shower after a long day, I didn't believe him at first when he told me the water changed by itself....BIG MISTAKE.  I jumped in and it did it to me....Not a good thing when you have soap in your hair and the water turns ICE COLD.  Needless to say I hurried up and go out. The pool is clean and clear, and the grill out beside it looks nice.  The parking is pretty spacious.  All in all it was a pretty good place to stay.  The continental breakfast needs some work, with a few doughnuts and cereal...its a quick bite before you have to get on the road. I would stay here again, but will take a bath instead of a shower, and Bring some pillows...the ones they have are small.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>If your looking for a place to crash and get some sleep and don't mind the sound of planes then this is a good place to be.  The King room is nice, the bed is pretty comfortable. The refigerator was cold, but the freezer don't work, small coffee pot, iron, ironing board and hair dryer are cool.  The only true issue is the Bi Polar shower.....It seriously cannot decide whether it wants to be hot or cold.  Regardless of how you set the knobs....it changes to what it wants.  Both my Husband and I tried to take a shower after a long day, I didn't believe him at first when he told me the water changed by itself....BIG MISTAKE.  I jumped in and it did it to me....Not a good thing when you have soap in your hair and the water turns ICE COLD.  Needless to say I hurried up and go out. The pool is clean and clear, and the grill out beside it looks nice.  The parking is pretty spacious.  All in all it was a pretty good place to stay.  The continental breakfast needs some work, with a few doughnuts and cereal...its a quick bite before you have to get on the road. I would stay here again, but will take a bath instead of a shower, and Bring some pillows...the ones they have are small.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r200273328-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>200273328</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great value </t>
+  </si>
+  <si>
+    <t>I stayed at the Knights Inn Metairie for five nights while in town for WrestleMania April 2nd thru the 7th. As my trip approached I was nervous having read the reviews this place has received and I'm happy to report that my experience far differs from the awful reviews this place has received. 
+Here's the deal. I'm pretty sure the people who reviewed this motel so poorly booked themselves a 2.5-star motel, but expected 5 stars. If you're expecting luxury when staying here, you're to blame for your disappointments, not the motel. 
+A flat rate cab ride cost me $20 to get from the airport to the hotel. Not bad, especially since I split the cab with a friend. I arrived earlier than the appointed check-in time and wasn't even questioned about checking in early. The front desk was helpful and friendly. No complaints there. 
+After I checked in, I headed to my room. Just a heads up, your only option to the second floor are stairs. No big deal to me personally. On my way to my room, I was happily surprised with the pool and courtyard area! The pool was huge and clean. I wish I had brought my suit! The courtyard behind the pool was pretty with flowers and palm trees. 
+I entered my room expecting a complete dive and was delighted to find a very clean, nice room with a flat screen TV. It's not fancy,...I stayed at the Knights Inn Metairie for five nights while in town for WrestleMania April 2nd thru the 7th. As my trip approached I was nervous having read the reviews this place has received and I'm happy to report that my experience far differs from the awful reviews this place has received. Here's the deal. I'm pretty sure the people who reviewed this motel so poorly booked themselves a 2.5-star motel, but expected 5 stars. If you're expecting luxury when staying here, you're to blame for your disappointments, not the motel. A flat rate cab ride cost me $20 to get from the airport to the hotel. Not bad, especially since I split the cab with a friend. I arrived earlier than the appointed check-in time and wasn't even questioned about checking in early. The front desk was helpful and friendly. No complaints there. After I checked in, I headed to my room. Just a heads up, your only option to the second floor are stairs. No big deal to me personally. On my way to my room, I was happily surprised with the pool and courtyard area! The pool was huge and clean. I wish I had brought my suit! The courtyard behind the pool was pretty with flowers and palm trees. I entered my room expecting a complete dive and was delighted to find a very clean, nice room with a flat screen TV. It's not fancy, but again, when you're booking a 2.5 star hotel you need to know what to expect. The beds weren't as comfy as a Hyatt bed obviously, but I was comfortable and given extra pillows without any trouble. The bathroom was clean, the dresser storage a plenty. If I had to make a complaint, the walks are a little thin, so you can hear your neighbors a little more than in a pricier hotel, but I'll gladly take that over paying what it costs to stay downtown.Location is another great aspect of staying here. Directly next store is a Sonic restaurant which makes it easy to hop over for a quick bite. Also, there's a Winn Dixie grocery store on the other side, which is a very nice option to stock up on snacks and drinks for the room especially considering that every room has a microwave and fridge/freezer in it. Getting downtown will cost you around $25. It sounds expensive but comparing what I spent on cabs to the cost of staying downtown, I definitely saved huge by staying at the Knights Inn. I saw in some of the reviews complaint about the trailer park beside the hotel. I personally didn't have one single issue with this during my entire stay. I think people just love to exaggerate and create problems that aren't there. I honestly had an overall positive experience at this motel and will stay here again when I return to New Orleans. One more thing to note. You can catch the E2 bus directly across from the motel and the E2 bus from downtown literally drops you off at the hotel. It's $2 to ride the E2, which is a great option for transportation as long as the bus times work with your plans.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Knights Inn Metairie for five nights while in town for WrestleMania April 2nd thru the 7th. As my trip approached I was nervous having read the reviews this place has received and I'm happy to report that my experience far differs from the awful reviews this place has received. 
+Here's the deal. I'm pretty sure the people who reviewed this motel so poorly booked themselves a 2.5-star motel, but expected 5 stars. If you're expecting luxury when staying here, you're to blame for your disappointments, not the motel. 
+A flat rate cab ride cost me $20 to get from the airport to the hotel. Not bad, especially since I split the cab with a friend. I arrived earlier than the appointed check-in time and wasn't even questioned about checking in early. The front desk was helpful and friendly. No complaints there. 
+After I checked in, I headed to my room. Just a heads up, your only option to the second floor are stairs. No big deal to me personally. On my way to my room, I was happily surprised with the pool and courtyard area! The pool was huge and clean. I wish I had brought my suit! The courtyard behind the pool was pretty with flowers and palm trees. 
+I entered my room expecting a complete dive and was delighted to find a very clean, nice room with a flat screen TV. It's not fancy,...I stayed at the Knights Inn Metairie for five nights while in town for WrestleMania April 2nd thru the 7th. As my trip approached I was nervous having read the reviews this place has received and I'm happy to report that my experience far differs from the awful reviews this place has received. Here's the deal. I'm pretty sure the people who reviewed this motel so poorly booked themselves a 2.5-star motel, but expected 5 stars. If you're expecting luxury when staying here, you're to blame for your disappointments, not the motel. A flat rate cab ride cost me $20 to get from the airport to the hotel. Not bad, especially since I split the cab with a friend. I arrived earlier than the appointed check-in time and wasn't even questioned about checking in early. The front desk was helpful and friendly. No complaints there. After I checked in, I headed to my room. Just a heads up, your only option to the second floor are stairs. No big deal to me personally. On my way to my room, I was happily surprised with the pool and courtyard area! The pool was huge and clean. I wish I had brought my suit! The courtyard behind the pool was pretty with flowers and palm trees. I entered my room expecting a complete dive and was delighted to find a very clean, nice room with a flat screen TV. It's not fancy, but again, when you're booking a 2.5 star hotel you need to know what to expect. The beds weren't as comfy as a Hyatt bed obviously, but I was comfortable and given extra pillows without any trouble. The bathroom was clean, the dresser storage a plenty. If I had to make a complaint, the walks are a little thin, so you can hear your neighbors a little more than in a pricier hotel, but I'll gladly take that over paying what it costs to stay downtown.Location is another great aspect of staying here. Directly next store is a Sonic restaurant which makes it easy to hop over for a quick bite. Also, there's a Winn Dixie grocery store on the other side, which is a very nice option to stock up on snacks and drinks for the room especially considering that every room has a microwave and fridge/freezer in it. Getting downtown will cost you around $25. It sounds expensive but comparing what I spent on cabs to the cost of staying downtown, I definitely saved huge by staying at the Knights Inn. I saw in some of the reviews complaint about the trailer park beside the hotel. I personally didn't have one single issue with this during my entire stay. I think people just love to exaggerate and create problems that aren't there. I honestly had an overall positive experience at this motel and will stay here again when I return to New Orleans. One more thing to note. You can catch the E2 bus directly across from the motel and the E2 bus from downtown literally drops you off at the hotel. It's $2 to ride the E2, which is a great option for transportation as long as the bus times work with your plans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r197546627-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>197546627</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>We pre-booked 2 nights here and wouldn't even have stayed 1 if anything else had been available. The room reeked of baby powder, mold, and body odor. There was no black out curtain so I slept with a jacket over my head to block out the bright exterior light shining into the room. That did nothing to muffle the blaring tv and outrageous snoring coming from next door! There was no blanket and only 3 flat pillows. Needless to say, I didn't sleep well. Also, the shower water barely qualified as lukewarm. We are NOT picky but we searched desperately for other lodging within a few minutes of our arrival there. Next time we will either plan ahead or stay home!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We pre-booked 2 nights here and wouldn't even have stayed 1 if anything else had been available. The room reeked of baby powder, mold, and body odor. There was no black out curtain so I slept with a jacket over my head to block out the bright exterior light shining into the room. That did nothing to muffle the blaring tv and outrageous snoring coming from next door! There was no blanket and only 3 flat pillows. Needless to say, I didn't sleep well. Also, the shower water barely qualified as lukewarm. We are NOT picky but we searched desperately for other lodging within a few minutes of our arrival there. Next time we will either plan ahead or stay home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r185350881-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>185350881</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>Seriously, I wish I had paid the price to stay right in New Orleans</t>
+  </si>
+  <si>
+    <t>It;s Oct 31 2013, I have a 10 hr drive from Jefferson City, TN and I need to be in New Orleans no later then 5PM. So my day has started quite early and the only snag I have is about a 30 minute delay on Interstate 40 outside of Knoxville TN for a very bad car accident. Enough said on that.
+I had made my reservations for the Knights Inn well in advance so I wasn't worried about that $210.00 for a 4 night stay during VOODOO festival (no didn't go to VOODOO festival). I was there at a special request from my baby sister.  Oh, sorry, off the track again, LOL.
+Ok so, I get to the hotel and upon driving up tot he front, i'm like, uhh-no, no, no...I'm sorry but the front looks like a hotel that is abandoned, OK, so I go in, go to the front desk tell the clerk who I am and say I have a reservation. Hmmm...funny, he can't find. Folks, always, always, always (I cannot stress that enough) travel with a printed copy of your reservation. So I pull it out and OH...wait, here is your reservation. 1 obstacle solved. Now, as I mentioned ina previous review I perfer rooms on the ground floor and non smoking, so I ask the clerk if there is a non smoking room on the ground floor and I get told there aren't any...It;s Oct 31 2013, I have a 10 hr drive from Jefferson City, TN and I need to be in New Orleans no later then 5PM. So my day has started quite early and the only snag I have is about a 30 minute delay on Interstate 40 outside of Knoxville TN for a very bad car accident. Enough said on that.I had made my reservations for the Knights Inn well in advance so I wasn't worried about that $210.00 for a 4 night stay during VOODOO festival (no didn't go to VOODOO festival). I was there at a special request from my baby sister.  Oh, sorry, off the track again, LOL.Ok so, I get to the hotel and upon driving up tot he front, i'm like, uhh-no, no, no...I'm sorry but the front looks like a hotel that is abandoned, OK, so I go in, go to the front desk tell the clerk who I am and say I have a reservation. Hmmm...funny, he can't find. Folks, always, always, always (I cannot stress that enough) travel with a printed copy of your reservation. So I pull it out and OH...wait, here is your reservation. 1 obstacle solved. Now, as I mentioned ina previous review I perfer rooms on the ground floor and non smoking, so I ask the clerk if there is a non smoking room on the ground floor and I get told there aren't any available. Ok, so where is your elevator? Clerk: we do not have 1Say what? you don't have an elevator? I'm not climbing 2 flights of stairs every day, twice a day for 4 days. So, I am offered a smoking room on the ground floor, hey works for me. Pay my reservation, get my key and off I go to the room. Not really paying any attention to my surrounding at the time cause Im on a schedule. Go around, park the car, go to the room and the first thing I see is a "no smoking" sign on the door. Hey wait a minute, didn't the clerk just tell me not even 10 minutes ago there wasn't any non smoking rooms on the ground floor? Who checked out that fast? LOLOk, so now I open the door and my next thought is : what circus have a stepped into? Seriously, the curtain on the window was multi color circles. OK, get past that. In the room-beds are too low tot he floor. The closest area, no hangars and no light. How do you expect someone to hang up their clothes? (that's OK though, during the course of my stay I discovered a rather large spider in the corner and I hate spiders!) The space between the closest area and the bathroom has a refrigerator which does not work correctly as there is water on the bottom of it.The bathroom, well let's see-the tub is missing the strainer, the plug for the sink does not work, the panel behind the toilet is falling out of the wall and the toilet paper is in a holder that reminds of one you might find in a public bathroom or restaurant bathroom. OH WHAT DID I GET MYSELF INTO?????The only good thing is that my sister is 7 doors awayOk, Im hungry. The closest thing is SONIC right next door.  Please grant me the strength to find other places to eat close by. (which by the way there is a CICI's not 5 minutes away along with your other various fast food joints, a diner and a WINN DIXIE.Now, lets talk about that continental breakfast again: stale donuts, coffee and cereal. WOW!Now they do offer coffee 24/7 but the only problem with that is they lock the door to the breakfast room from the inside so you can't get in from the outside and if you try to go tot he main door they lock that at 5pm. So they purpose of having coffee 24/7 is what? you can;t get to it! Oh, and if you do want that cereal and stale donuts don't expect to get it until 7am maybe later cause the door to the breakfast room doesn't get unlocked until that time so you would have to walk to the front of the building.Now, let's talk about the pool. Pool was very clean and we got to know the cleaning pool guy as we would chat with him each morning but he isn't responsible for the condition of the pool furniture. Seriously, there was not one piece of pool furniture you cud sit on without fear of falling through.Now let's talk about that laundry room: $2.00 wash, ok reasonable/dryer $2.75 and after 45 minutes the clothes still are not dry. Don't waste your money!Surrounding area: hmmm....hotel is built right next to a trailer park. Make sure  you don't leave your valuables in the car and that you lock your car.Plus side: you definitely can not hear any traffic in a back corner roomMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>It;s Oct 31 2013, I have a 10 hr drive from Jefferson City, TN and I need to be in New Orleans no later then 5PM. So my day has started quite early and the only snag I have is about a 30 minute delay on Interstate 40 outside of Knoxville TN for a very bad car accident. Enough said on that.
+I had made my reservations for the Knights Inn well in advance so I wasn't worried about that $210.00 for a 4 night stay during VOODOO festival (no didn't go to VOODOO festival). I was there at a special request from my baby sister.  Oh, sorry, off the track again, LOL.
+Ok so, I get to the hotel and upon driving up tot he front, i'm like, uhh-no, no, no...I'm sorry but the front looks like a hotel that is abandoned, OK, so I go in, go to the front desk tell the clerk who I am and say I have a reservation. Hmmm...funny, he can't find. Folks, always, always, always (I cannot stress that enough) travel with a printed copy of your reservation. So I pull it out and OH...wait, here is your reservation. 1 obstacle solved. Now, as I mentioned ina previous review I perfer rooms on the ground floor and non smoking, so I ask the clerk if there is a non smoking room on the ground floor and I get told there aren't any...It;s Oct 31 2013, I have a 10 hr drive from Jefferson City, TN and I need to be in New Orleans no later then 5PM. So my day has started quite early and the only snag I have is about a 30 minute delay on Interstate 40 outside of Knoxville TN for a very bad car accident. Enough said on that.I had made my reservations for the Knights Inn well in advance so I wasn't worried about that $210.00 for a 4 night stay during VOODOO festival (no didn't go to VOODOO festival). I was there at a special request from my baby sister.  Oh, sorry, off the track again, LOL.Ok so, I get to the hotel and upon driving up tot he front, i'm like, uhh-no, no, no...I'm sorry but the front looks like a hotel that is abandoned, OK, so I go in, go to the front desk tell the clerk who I am and say I have a reservation. Hmmm...funny, he can't find. Folks, always, always, always (I cannot stress that enough) travel with a printed copy of your reservation. So I pull it out and OH...wait, here is your reservation. 1 obstacle solved. Now, as I mentioned ina previous review I perfer rooms on the ground floor and non smoking, so I ask the clerk if there is a non smoking room on the ground floor and I get told there aren't any available. Ok, so where is your elevator? Clerk: we do not have 1Say what? you don't have an elevator? I'm not climbing 2 flights of stairs every day, twice a day for 4 days. So, I am offered a smoking room on the ground floor, hey works for me. Pay my reservation, get my key and off I go to the room. Not really paying any attention to my surrounding at the time cause Im on a schedule. Go around, park the car, go to the room and the first thing I see is a "no smoking" sign on the door. Hey wait a minute, didn't the clerk just tell me not even 10 minutes ago there wasn't any non smoking rooms on the ground floor? Who checked out that fast? LOLOk, so now I open the door and my next thought is : what circus have a stepped into? Seriously, the curtain on the window was multi color circles. OK, get past that. In the room-beds are too low tot he floor. The closest area, no hangars and no light. How do you expect someone to hang up their clothes? (that's OK though, during the course of my stay I discovered a rather large spider in the corner and I hate spiders!) The space between the closest area and the bathroom has a refrigerator which does not work correctly as there is water on the bottom of it.The bathroom, well let's see-the tub is missing the strainer, the plug for the sink does not work, the panel behind the toilet is falling out of the wall and the toilet paper is in a holder that reminds of one you might find in a public bathroom or restaurant bathroom. OH WHAT DID I GET MYSELF INTO?????The only good thing is that my sister is 7 doors awayOk, Im hungry. The closest thing is SONIC right next door.  Please grant me the strength to find other places to eat close by. (which by the way there is a CICI's not 5 minutes away along with your other various fast food joints, a diner and a WINN DIXIE.Now, lets talk about that continental breakfast again: stale donuts, coffee and cereal. WOW!Now they do offer coffee 24/7 but the only problem with that is they lock the door to the breakfast room from the inside so you can't get in from the outside and if you try to go tot he main door they lock that at 5pm. So they purpose of having coffee 24/7 is what? you can;t get to it! Oh, and if you do want that cereal and stale donuts don't expect to get it until 7am maybe later cause the door to the breakfast room doesn't get unlocked until that time so you would have to walk to the front of the building.Now, let's talk about the pool. Pool was very clean and we got to know the cleaning pool guy as we would chat with him each morning but he isn't responsible for the condition of the pool furniture. Seriously, there was not one piece of pool furniture you cud sit on without fear of falling through.Now let's talk about that laundry room: $2.00 wash, ok reasonable/dryer $2.75 and after 45 minutes the clothes still are not dry. Don't waste your money!Surrounding area: hmmm....hotel is built right next to a trailer park. Make sure  you don't leave your valuables in the car and that you lock your car.Plus side: you definitely can not hear any traffic in a back corner roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r160779298-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>160779298</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>What I was expecting</t>
+  </si>
+  <si>
+    <t>I stayed here for just one night in March. The rooms were quite big and were pretty much what you would expect for a 2 star hotel. At first I was worried about the location but it was OK, as there is a burger drive through next door and a Wynn Dixie 5 minutes walk west of the hotel. I didn't mind it because I was honestly expecting the worst, because of the reviews and the price.The staff were also friendly.The only real downside was the suspicious behavior that was happening there. I could hear people all night talking about drugs, but I just ignored it and minded my own business (and probably for the best).MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for just one night in March. The rooms were quite big and were pretty much what you would expect for a 2 star hotel. At first I was worried about the location but it was OK, as there is a burger drive through next door and a Wynn Dixie 5 minutes walk west of the hotel. I didn't mind it because I was honestly expecting the worst, because of the reviews and the price.The staff were also friendly.The only real downside was the suspicious behavior that was happening there. I could hear people all night talking about drugs, but I just ignored it and minded my own business (and probably for the best).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r159544962-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>159544962</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>Stayed during Jazz Fest</t>
+  </si>
+  <si>
+    <t>It's a budget hotel, and you get what you pay for. Unfortunately we paid too much, because we made last minute reservations at a very busy time. Pros: The staff was extremely friendly and helpful. The room was very clean. Cons: The pool area needed work, and was not usable. Some updating is needed throughout the hotel, and the beds were very small. It's about 20 minutes from the French Quarter, and about the same from the Fairgrounds/Festival. The cab ride averaged $25 for 4 people one way.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r159089162-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>159089162</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Pretty terrible</t>
+  </si>
+  <si>
+    <t>I think this place serves just one purpose like for me when I cam in to New Orleans airport after midnight and looked for a (somewhat) cheap place to sleep and then go on the next morning. It is one of these pretty run down places where you don't want to step on the carpet with bare feet, in an isolated area somewhere by the train tracks and warehouses. I paid 70 bucks at Kayak, but next time I would spend a bit more money and use one of the nicer other chain hotels/motels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r151488290-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>151488290</t>
+  </si>
+  <si>
+    <t>02/05/2013</t>
+  </si>
+  <si>
+    <t>Really bad condition, especially for a Knights Inn</t>
+  </si>
+  <si>
+    <t>This Knights Inn needs a LOT of repair and maintenance. The outside surfaces are in really bad condition and are falling apart. Too bad I can't rate this a zero. Room interior is better, but still is only "so-so". Take your valuables out of your car and into your room. Watch your step on the stairs, because of loose, broken, and missing stair treads.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r150554450-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>150554450</t>
+  </si>
+  <si>
+    <t>01/24/2013</t>
+  </si>
+  <si>
+    <t>This is a Knights Inn now...</t>
+  </si>
+  <si>
+    <t>Average hotel, stayed here 4 nights for business, nothing fancy but rooms were clean, reserved a smoking King room with a fridge &amp; Micro. Front desk staff checked me in promptly and maid service came by every day. There was loud music playing at night but only lasted a couple of hours. They have a Sonics drive thru next door. Area does feel rough after dark but I had no problems. I would stay here again if back in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r125553170-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>125553170</t>
+  </si>
+  <si>
+    <t>03/03/2012</t>
+  </si>
+  <si>
+    <t>Desparate choice prior to cruise</t>
+  </si>
+  <si>
+    <t>We booked this motel only to have a place to stay before departing on a Caribbean cruise. BIG mistake was to book the cruise just before Mardi Gras. This place was the only game in town. I had read other reviews and was not inclined to stay here and was searching on Hotels.com/Expedia.com and spoke with their representative, she Assured me that any property they use was safe/okay, etc. even when I expressed my concerns. With that in mind, and for just one night we thought it would be okay. Wrong. Even the taxi driver who dropped us off asked why we were staying there. We got to our room and it was acceptable overall, considering our circumstances. The scariest thing was that the door did NOT LOCK! The fold over latch did but that did not give us a warm fuzzy. We barricaded the door against the dresser as best we could with chairs and the ironing board. We were kept up most of the night by slamming doors, loud voices, and knocking on other doors, which somewhat abated after those people went in to Mardi Gras. We slept fitfully until they returned about 4 a.m. and we just waited until the morning arrived. When we went to check out, we encountered two other couples/families who had endured the same experience, the family of four being given a single bed for the four of them and their room was...We booked this motel only to have a place to stay before departing on a Caribbean cruise. BIG mistake was to book the cruise just before Mardi Gras. This place was the only game in town. I had read other reviews and was not inclined to stay here and was searching on Hotels.com/Expedia.com and spoke with their representative, she Assured me that any property they use was safe/okay, etc. even when I expressed my concerns. With that in mind, and for just one night we thought it would be okay. Wrong. Even the taxi driver who dropped us off asked why we were staying there. We got to our room and it was acceptable overall, considering our circumstances. The scariest thing was that the door did NOT LOCK! The fold over latch did but that did not give us a warm fuzzy. We barricaded the door against the dresser as best we could with chairs and the ironing board. We were kept up most of the night by slamming doors, loud voices, and knocking on other doors, which somewhat abated after those people went in to Mardi Gras. We slept fitfully until they returned about 4 a.m. and we just waited until the morning arrived. When we went to check out, we encountered two other couples/families who had endured the same experience, the family of four being given a single bed for the four of them and their room was not even ready until well after midnight!  We have felt more secure in border town hotels in Mexico than this place. And why on earth have doors right next to the window?The staff were nice but this place was pretty scary.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>We booked this motel only to have a place to stay before departing on a Caribbean cruise. BIG mistake was to book the cruise just before Mardi Gras. This place was the only game in town. I had read other reviews and was not inclined to stay here and was searching on Hotels.com/Expedia.com and spoke with their representative, she Assured me that any property they use was safe/okay, etc. even when I expressed my concerns. With that in mind, and for just one night we thought it would be okay. Wrong. Even the taxi driver who dropped us off asked why we were staying there. We got to our room and it was acceptable overall, considering our circumstances. The scariest thing was that the door did NOT LOCK! The fold over latch did but that did not give us a warm fuzzy. We barricaded the door against the dresser as best we could with chairs and the ironing board. We were kept up most of the night by slamming doors, loud voices, and knocking on other doors, which somewhat abated after those people went in to Mardi Gras. We slept fitfully until they returned about 4 a.m. and we just waited until the morning arrived. When we went to check out, we encountered two other couples/families who had endured the same experience, the family of four being given a single bed for the four of them and their room was...We booked this motel only to have a place to stay before departing on a Caribbean cruise. BIG mistake was to book the cruise just before Mardi Gras. This place was the only game in town. I had read other reviews and was not inclined to stay here and was searching on Hotels.com/Expedia.com and spoke with their representative, she Assured me that any property they use was safe/okay, etc. even when I expressed my concerns. With that in mind, and for just one night we thought it would be okay. Wrong. Even the taxi driver who dropped us off asked why we were staying there. We got to our room and it was acceptable overall, considering our circumstances. The scariest thing was that the door did NOT LOCK! The fold over latch did but that did not give us a warm fuzzy. We barricaded the door against the dresser as best we could with chairs and the ironing board. We were kept up most of the night by slamming doors, loud voices, and knocking on other doors, which somewhat abated after those people went in to Mardi Gras. We slept fitfully until they returned about 4 a.m. and we just waited until the morning arrived. When we went to check out, we encountered two other couples/families who had endured the same experience, the family of four being given a single bed for the four of them and their room was not even ready until well after midnight!  We have felt more secure in border town hotels in Mexico than this place. And why on earth have doors right next to the window?The staff were nice but this place was pretty scary.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r125007235-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>125007235</t>
+  </si>
+  <si>
+    <t>02/21/2012</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r48749258-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>48749258</t>
+  </si>
+  <si>
+    <t>11/08/2009</t>
+  </si>
+  <si>
+    <t>What you pay for its 2 star and that what i got</t>
+  </si>
+  <si>
+    <t>Stayed here and other remarks above put me off stayed here before better this time going through major reconstruction was clean, yes few cigarette marks but this is why its so cheap without any frills not as bad as what others have before said, short drive from airport and down town.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r2857501-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>2857501</t>
+  </si>
+  <si>
+    <t>11/30/2004</t>
+  </si>
+  <si>
+    <t>Don't stay here!</t>
+  </si>
+  <si>
+    <t>New Orleans was great.  However, we arrived a day earlier then initially planned and had to find a place to stay for the night.  What a mistake it was to stay at the Travelodge.  Other lodgers were yelling very loudly from 4-6 am.  The front desk would not take action to deal with the situation and NO ONE was able to sleep during that time.  I feared for my family's safety.Additionally, the bathrooom door and toilet barely worked.  The carpet was disgusting.  My 10 month old son was covered with a sooty grime after crawling around on the carpet for a few minutes.  We had to hold him the entire time we were there.  The room smelled badly even though it was a "non-smoking" room.  I don't ask for much from a motel room, but this was the worst place I've stayed in the last five years.MoreShow less</t>
+  </si>
+  <si>
+    <t>New Orleans was great.  However, we arrived a day earlier then initially planned and had to find a place to stay for the night.  What a mistake it was to stay at the Travelodge.  Other lodgers were yelling very loudly from 4-6 am.  The front desk would not take action to deal with the situation and NO ONE was able to sleep during that time.  I feared for my family's safety.Additionally, the bathrooom door and toilet barely worked.  The carpet was disgusting.  My 10 month old son was covered with a sooty grime after crawling around on the carpet for a few minutes.  We had to hold him the entire time we were there.  The room smelled badly even though it was a "non-smoking" room.  I don't ask for much from a motel room, but this was the worst place I've stayed in the last five years.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93079-r2191661-Knights_Inn_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>2191661</t>
+  </si>
+  <si>
+    <t>06/14/2004</t>
+  </si>
+  <si>
+    <t>No Maid Service in The Travel Lodge!</t>
+  </si>
+  <si>
+    <t>I loved New Orleans and had a great time there, however, we couldn't get to our hotel until the next day, so we had to find one for our first night.  We ended up at the Travel Lodge in Metairie and it was a nightmare!  We had taken a taxi into New Orleans and got back about 2:00 a.m. I went to turn down the covers on my bed and the sheets looked crumpled and slept in.  OK, I thought I could turn the sheets inside out, but lo and behold, the bottom sheet had already been turned inside out!!  Then I threw the covers back a little more and to my horror, there was hair in my bed! My sister checked her bed out and it also had hair in it.  These beds had not been cleaned for at least two weeks, probably more.  There was not only hair but dirt between the sheets. I am convinced that others had just turned the bottom sheet inside out instead of complaining.  We also still had a used coffee bag in the coffee pot and we did not have a new bag for coffee in the morning.  I was literally disgusted with this room.  These bed were filthy!!! I have been searching for the site for the Travel Lodge because I feel they need to know what kind of people are representing them.  This night manager (foreign) stood at my door...I loved New Orleans and had a great time there, however, we couldn't get to our hotel until the next day, so we had to find one for our first night.  We ended up at the Travel Lodge in Metairie and it was a nightmare!  We had taken a taxi into New Orleans and got back about 2:00 a.m. I went to turn down the covers on my bed and the sheets looked crumpled and slept in.  OK, I thought I could turn the sheets inside out, but lo and behold, the bottom sheet had already been turned inside out!!  Then I threw the covers back a little more and to my horror, there was hair in my bed! My sister checked her bed out and it also had hair in it.  These beds had not been cleaned for at least two weeks, probably more.  There was not only hair but dirt between the sheets. I am convinced that others had just turned the bottom sheet inside out instead of complaining.  We also still had a used coffee bag in the coffee pot and we did not have a new bag for coffee in the morning.  I was literally disgusted with this room.  These bed were filthy!!! I have been searching for the site for the Travel Lodge because I feel they need to know what kind of people are representing them.  This night manager (foreign) stood at my door at 3:00 in the morning and handed me clean sheets.  I even had to make the beds myself!  There was also a customer form filled out which had not been picked up, full of complaints, as well as our own.  I do believe they do not have a maid service, they just come in and make beds and put in clean towels.  This was the most otrocious hotel I have ever been in.  I just feel like Travel Lodge needs to know.  Thank You, a disgusted traveler, Rena J. Williams. PS: I will come back to New Orleans, but not Metairie!  I hope this will get to the Travel Lodge main office.MoreShow less</t>
+  </si>
+  <si>
+    <t>I loved New Orleans and had a great time there, however, we couldn't get to our hotel until the next day, so we had to find one for our first night.  We ended up at the Travel Lodge in Metairie and it was a nightmare!  We had taken a taxi into New Orleans and got back about 2:00 a.m. I went to turn down the covers on my bed and the sheets looked crumpled and slept in.  OK, I thought I could turn the sheets inside out, but lo and behold, the bottom sheet had already been turned inside out!!  Then I threw the covers back a little more and to my horror, there was hair in my bed! My sister checked her bed out and it also had hair in it.  These beds had not been cleaned for at least two weeks, probably more.  There was not only hair but dirt between the sheets. I am convinced that others had just turned the bottom sheet inside out instead of complaining.  We also still had a used coffee bag in the coffee pot and we did not have a new bag for coffee in the morning.  I was literally disgusted with this room.  These bed were filthy!!! I have been searching for the site for the Travel Lodge because I feel they need to know what kind of people are representing them.  This night manager (foreign) stood at my door...I loved New Orleans and had a great time there, however, we couldn't get to our hotel until the next day, so we had to find one for our first night.  We ended up at the Travel Lodge in Metairie and it was a nightmare!  We had taken a taxi into New Orleans and got back about 2:00 a.m. I went to turn down the covers on my bed and the sheets looked crumpled and slept in.  OK, I thought I could turn the sheets inside out, but lo and behold, the bottom sheet had already been turned inside out!!  Then I threw the covers back a little more and to my horror, there was hair in my bed! My sister checked her bed out and it also had hair in it.  These beds had not been cleaned for at least two weeks, probably more.  There was not only hair but dirt between the sheets. I am convinced that others had just turned the bottom sheet inside out instead of complaining.  We also still had a used coffee bag in the coffee pot and we did not have a new bag for coffee in the morning.  I was literally disgusted with this room.  These bed were filthy!!! I have been searching for the site for the Travel Lodge because I feel they need to know what kind of people are representing them.  This night manager (foreign) stood at my door at 3:00 in the morning and handed me clean sheets.  I even had to make the beds myself!  There was also a customer form filled out which had not been picked up, full of complaints, as well as our own.  I do believe they do not have a maid service, they just come in and make beds and put in clean towels.  This was the most otrocious hotel I have ever been in.  I just feel like Travel Lodge needs to know.  Thank You, a disgusted traveler, Rena J. Williams. PS: I will come back to New Orleans, but not Metairie!  I hope this will get to the Travel Lodge main office.More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -561,6 +1332,2374 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>76</v>
+      </c>
+      <c r="X7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>76</v>
+      </c>
+      <c r="X9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>110</v>
+      </c>
+      <c r="X12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>142</v>
+      </c>
+      <c r="O17" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>197</v>
+      </c>
+      <c r="O26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" t="s">
+        <v>202</v>
+      </c>
+      <c r="L27" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>197</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+      <c r="K28" t="s">
+        <v>208</v>
+      </c>
+      <c r="L28" t="s">
+        <v>209</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>210</v>
+      </c>
+      <c r="O28" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s">
+        <v>216</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>217</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" t="s">
+        <v>223</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>224</v>
+      </c>
+      <c r="O30" t="s">
+        <v>91</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>231</v>
+      </c>
+      <c r="O32" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J33" t="s">
+        <v>239</v>
+      </c>
+      <c r="K33" t="s">
+        <v>240</v>
+      </c>
+      <c r="L33" t="s">
+        <v>241</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>242</v>
+      </c>
+      <c r="O33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" t="s">
+        <v>246</v>
+      </c>
+      <c r="L34" t="s">
+        <v>247</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>242</v>
+      </c>
+      <c r="O34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>249</v>
+      </c>
+      <c r="J35" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" t="s">
+        <v>251</v>
+      </c>
+      <c r="L35" t="s">
+        <v>252</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>253</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s">
+        <v>258</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>253</v>
+      </c>
+      <c r="O36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>261</v>
+      </c>
+      <c r="J37" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" t="s">
+        <v>263</v>
+      </c>
+      <c r="L37" t="s">
+        <v>264</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>265</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J39" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" t="s">
+        <v>276</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +3722,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>279</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +3754,31 @@
         <v>4885</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>289</v>
       </c>
       <c r="E2" t="n">
         <v>70003</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>290</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>292</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
